--- a/DATA_goal/Junction_Flooding_420.xlsx
+++ b/DATA_goal/Junction_Flooding_420.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.68</v>
+        <v>66.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.7</v>
+        <v>36.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.09</v>
+        <v>30.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.98</v>
+        <v>49.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>19.85</v>
+        <v>198.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.78</v>
+        <v>37.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.48</v>
+        <v>24.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.48</v>
+        <v>44.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_420.xlsx
+++ b/DATA_goal/Junction_Flooding_420.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45101.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45101.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.34</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.23</v>
+        <v>6.527</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.59</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.43</v>
+        <v>20.247</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.26</v>
+        <v>16.755</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.91</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.43</v>
+        <v>32.496</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.19</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.458</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.73</v>
+        <v>8.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.84</v>
+        <v>8.452</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.06</v>
+        <v>2.419</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.89</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>10.543</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.03</v>
+        <v>6.564</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.44</v>
+        <v>1.561</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.864</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.5</v>
+        <v>107.147</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.67</v>
+        <v>21.178</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.23</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.15</v>
+        <v>13.883</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.98</v>
+        <v>7.473</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.46</v>
+        <v>15.242</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.12</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.23</v>
+        <v>5.645</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.1</v>
+        <v>8.465</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.59</v>
+        <v>29.458</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.777</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.03</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45101.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.98</v>
+        <v>7.687</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.8</v>
+        <v>5.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.032</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.7</v>
+        <v>16.296</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.98</v>
+        <v>13.482</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.27</v>
+        <v>6.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.65</v>
+        <v>25.079</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.07</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.63</v>
+        <v>5.976</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.23</v>
+        <v>6.636</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.27</v>
+        <v>6.837</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.933</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.56</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.32</v>
+        <v>8.436</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.86</v>
+        <v>5.269</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.34</v>
+        <v>1.007</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.81</v>
+        <v>84.233</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.71</v>
+        <v>16.871</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.73</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>11.084</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.63</v>
+        <v>6.033</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.648</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>11.741</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.94</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.27</v>
+        <v>4.497</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.91</v>
+        <v>5.256</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.15</v>
+        <v>6.881</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.62</v>
+        <v>22.557</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.37</v>
+        <v>3.025</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.41</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45101.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.83</v>
+        <v>5.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.09</v>
+        <v>3.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.96</v>
+        <v>12.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.92</v>
+        <v>10.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.89</v>
+        <v>4.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.8</v>
+        <v>19.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.56</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.45</v>
+        <v>4.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.95</v>
+        <v>5.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.59</v>
+        <v>5.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.35</v>
+        <v>1.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.29</v>
+        <v>4.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.6</v>
+        <v>6.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.06</v>
+        <v>3.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.49</v>
+        <v>61.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.76</v>
+        <v>12.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.66</v>
+        <v>4.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.64</v>
+        <v>8.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.28</v>
+        <v>4.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.77</v>
+        <v>0.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.78</v>
+        <v>8.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.01</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.51</v>
+        <v>3.38</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.24</v>
+        <v>3.95</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.19</v>
+        <v>5.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.82</v>
+        <v>17.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.97</v>
+        <v>2.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_420.xlsx
+++ b/DATA_goal/Junction_Flooding_420.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,13 +463,13 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45101.50694444445</v>
+        <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.1</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.162</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.209</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.427</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.398</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.391</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.345</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.759</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.337</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.452</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.439</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.302</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.553</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.294</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.297</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.517</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.762</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.458</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.893</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.146</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.963</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.894</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.657</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.022</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.586</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.1</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.689</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.848</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.074</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.56</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.856</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.957</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45101.51388888889</v>
+        <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.609</v>
+        <v>9.339</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.527</v>
+        <v>6.231</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.111</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.247</v>
+        <v>16.429</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.755</v>
+        <v>14.261</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.562</v>
+        <v>6.907</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.496</v>
+        <v>20.433</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.635</v>
+        <v>9.192</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.92</v>
+        <v>4.346</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.458</v>
+        <v>7.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.18</v>
+        <v>6.726</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.452</v>
+        <v>6.841</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.419</v>
+        <v>2.064</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>5.885</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.543</v>
+        <v>9.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.564</v>
+        <v>5.032</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.561</v>
+        <v>0.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.864</v>
+        <v>0.147</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.147</v>
+        <v>89.503</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.178</v>
+        <v>17.668</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>6.234</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.883</v>
+        <v>12.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.473</v>
+        <v>5.976</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.838</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.242</v>
+        <v>10.457</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>5.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.645</v>
+        <v>4.229</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.59</v>
+        <v>5.079</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.465</v>
+        <v>8.096</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.458</v>
+        <v>17.594</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.777</v>
+        <v>3.068</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>7.026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45101.52083333334</v>
+        <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.687</v>
+        <v>6.983</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.32</v>
+        <v>4.802</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.032</v>
+        <v>0.067</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.296</v>
+        <v>12.699</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.482</v>
+        <v>10.976</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.049</v>
+        <v>5.271</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.079</v>
+        <v>19.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.308</v>
+        <v>7.073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.97</v>
+        <v>3.375</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.976</v>
+        <v>5.625</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.636</v>
+        <v>5.227</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.837</v>
+        <v>5.272</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.933</v>
+        <v>1.577</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.015</v>
+        <v>4.558</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.436</v>
+        <v>7.317</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.269</v>
+        <v>3.861</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.007</v>
+        <v>0.341</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.556</v>
+        <v>0.091</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.233</v>
+        <v>66.813</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.871</v>
+        <v>13.712</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.552</v>
+        <v>4.734</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.084</v>
+        <v>9.387</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.033</v>
+        <v>4.632</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.648</v>
+        <v>0.641</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.741</v>
+        <v>9.695</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.904</v>
+        <v>3.945</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.497</v>
+        <v>3.269</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.256</v>
+        <v>3.913</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.881</v>
+        <v>6.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.557</v>
+        <v>17.623</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.025</v>
+        <v>2.368</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.942</v>
+        <v>5.412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45101.52777777778</v>
+        <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.77</v>
+        <v>17.833</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.99</v>
+        <v>13.094</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.459</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.22</v>
+        <v>36.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.11</v>
+        <v>30.924</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.54</v>
+        <v>13.892</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.1</v>
+        <v>49.797</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.98</v>
+        <v>20.559</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.98</v>
+        <v>9.385</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.46</v>
+        <v>14.449</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.01</v>
+        <v>14.952</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.13</v>
+        <v>15.585</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.45</v>
+        <v>4.349</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>13.294</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>19.604</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>11.065</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>198.494</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>37.758</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>25.637</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>13.275</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>24.778</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>11.012</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>9.509</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>11.241</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>16.192</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>44.816</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>6.969</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>15.449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>4.51</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>61.34</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AC5" s="4" t="n">
+      <c r="M6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>3.95</v>
       </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.21</v>
+      <c r="P6" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_420.xlsx
+++ b/DATA_goal/Junction_Flooding_420.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,13 +463,13 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45101.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45101.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.339</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.231</v>
+        <v>6.527</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.111</v>
+        <v>1.59</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.429</v>
+        <v>20.247</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.261</v>
+        <v>16.755</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.907</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.433</v>
+        <v>32.496</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.192</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.346</v>
+        <v>4.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.458</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.726</v>
+        <v>8.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.841</v>
+        <v>8.452</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.064</v>
+        <v>2.419</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.885</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.471</v>
+        <v>10.543</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.032</v>
+        <v>6.564</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.44</v>
+        <v>1.561</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.147</v>
+        <v>0.864</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.503</v>
+        <v>107.147</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.668</v>
+        <v>21.178</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.234</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.15</v>
+        <v>13.883</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.976</v>
+        <v>7.473</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.838</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.457</v>
+        <v>15.242</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.12</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.229</v>
+        <v>5.645</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.079</v>
+        <v>6.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.096</v>
+        <v>8.465</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.594</v>
+        <v>29.458</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.068</v>
+        <v>3.777</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.026</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45101.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.983</v>
+        <v>7.687</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.802</v>
+        <v>5.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.067</v>
+        <v>1.032</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.699</v>
+        <v>16.296</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.976</v>
+        <v>13.482</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.271</v>
+        <v>6.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.65</v>
+        <v>25.079</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.073</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.375</v>
+        <v>3.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.625</v>
+        <v>5.976</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.227</v>
+        <v>6.636</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.272</v>
+        <v>6.837</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.577</v>
+        <v>1.933</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.558</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.317</v>
+        <v>8.436</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.861</v>
+        <v>5.269</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.341</v>
+        <v>1.007</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.091</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.813</v>
+        <v>84.233</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.712</v>
+        <v>16.871</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.734</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.387</v>
+        <v>11.084</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.632</v>
+        <v>6.033</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.641</v>
+        <v>0.648</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.695</v>
+        <v>11.741</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.945</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.269</v>
+        <v>4.497</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.913</v>
+        <v>5.256</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.15</v>
+        <v>6.881</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.623</v>
+        <v>22.557</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.368</v>
+        <v>3.025</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.412</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45101.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.833</v>
+        <v>5.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.094</v>
+        <v>3.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.459</v>
+        <v>0.75</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.96</v>
+        <v>12.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.924</v>
+        <v>10.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.892</v>
+        <v>4.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.797</v>
+        <v>19.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.559</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.385</v>
+        <v>2.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.449</v>
+        <v>4.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.952</v>
+        <v>5.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.585</v>
+        <v>5.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.349</v>
+        <v>1.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.294</v>
+        <v>4.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.604</v>
+        <v>6.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.065</v>
+        <v>3.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.382</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.426</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.494</v>
+        <v>61.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.758</v>
+        <v>12.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.66</v>
+        <v>4.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.637</v>
+        <v>8.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.275</v>
+        <v>4.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.774</v>
+        <v>0.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.778</v>
+        <v>8.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.012</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.509</v>
+        <v>3.38</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.241</v>
+        <v>3.95</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.192</v>
+        <v>5.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.816</v>
+        <v>17.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.969</v>
+        <v>2.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.449</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>
